--- a/demo_sql.xlsx
+++ b/demo_sql.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>customer</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -57,9 +54,6 @@
     <t>n</t>
   </si>
   <si>
-    <t>customer_id</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
@@ -72,34 +66,52 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>mark</t>
-  </si>
-  <si>
-    <t>date_of_submission</t>
-  </si>
-  <si>
     <t>question</t>
   </si>
   <si>
-    <t>t_answer</t>
-  </si>
-  <si>
-    <t>f_answer</t>
-  </si>
-  <si>
     <t>exercise_id</t>
   </si>
   <si>
-    <t>t_answer_id</t>
-  </si>
-  <si>
-    <t>f_answer_id</t>
-  </si>
-  <si>
     <t>status(bool)</t>
   </si>
   <si>
     <t>answer</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>profile</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>flg(bool)</t>
+  </si>
+  <si>
+    <t>note</t>
+  </si>
+  <si>
+    <t>question_id</t>
+  </si>
+  <si>
+    <t>role(bool)</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>submit_date</t>
+  </si>
+  <si>
+    <t>point</t>
+  </si>
+  <si>
+    <t>exercise_detail</t>
+  </si>
+  <si>
+    <t>submission_deadline</t>
   </si>
 </sst>
 </file>
@@ -239,29 +251,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -271,38 +262,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -314,6 +329,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -323,9 +341,9 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
@@ -340,52 +358,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1885950" y="514350"/>
-          <a:ext cx="1162050" cy="209550"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="1876425" y="904875"/>
-          <a:ext cx="1152525" cy="981075"/>
+          <a:off x="1857375" y="542925"/>
+          <a:ext cx="1190625" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -454,36 +428,80 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>561973</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6829425" y="762001"/>
+          <a:ext cx="1181100" cy="1123949"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Freeform 28"/>
+        <xdr:cNvPr id="11" name="Freeform 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4829173" y="438150"/>
-          <a:ext cx="657226" cy="1666875"/>
+        <a:xfrm>
+          <a:off x="1828801" y="561975"/>
+          <a:ext cx="171450" cy="1514475"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
           <a:gdLst>
-            <a:gd name="connsiteX0" fmla="*/ 0 w 390531"/>
-            <a:gd name="connsiteY0" fmla="*/ 148480 h 1691530"/>
-            <a:gd name="connsiteX1" fmla="*/ 390525 w 390531"/>
-            <a:gd name="connsiteY1" fmla="*/ 148480 h 1691530"/>
-            <a:gd name="connsiteX2" fmla="*/ 9525 w 390531"/>
-            <a:gd name="connsiteY2" fmla="*/ 1691530 h 1691530"/>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 457221"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1514475"/>
+            <a:gd name="connsiteX1" fmla="*/ 457200 w 457221"/>
+            <a:gd name="connsiteY1" fmla="*/ 771525 h 1514475"/>
+            <a:gd name="connsiteX2" fmla="*/ 19050 w 457221"/>
+            <a:gd name="connsiteY2" fmla="*/ 1514475 h 1514475"/>
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst>
@@ -499,19 +517,207 @@
           </a:cxnLst>
           <a:rect l="l" t="t" r="r" b="b"/>
           <a:pathLst>
-            <a:path w="390531" h="1691530">
+            <a:path w="457221" h="1514475">
               <a:moveTo>
-                <a:pt x="0" y="148480"/>
+                <a:pt x="0" y="0"/>
               </a:moveTo>
               <a:cubicBezTo>
-                <a:pt x="194469" y="19892"/>
-                <a:pt x="388938" y="-108695"/>
-                <a:pt x="390525" y="148480"/>
+                <a:pt x="227012" y="259556"/>
+                <a:pt x="454025" y="519113"/>
+                <a:pt x="457200" y="771525"/>
               </a:cubicBezTo>
               <a:cubicBezTo>
-                <a:pt x="392112" y="405655"/>
-                <a:pt x="103187" y="1431180"/>
-                <a:pt x="9525" y="1691530"/>
+                <a:pt x="460375" y="1023938"/>
+                <a:pt x="112713" y="1381125"/>
+                <a:pt x="19050" y="1514475"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Straight Connector 22"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9239250" y="571500"/>
+          <a:ext cx="1219200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Straight Connector 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6800850" y="1914525"/>
+          <a:ext cx="1219200" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>136583</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Freeform 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1847850" y="552450"/>
+          <a:ext cx="6162675" cy="2251133"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 6162675"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 2251133"/>
+            <a:gd name="connsiteX1" fmla="*/ 1200150 w 6162675"/>
+            <a:gd name="connsiteY1" fmla="*/ 1257300 h 2251133"/>
+            <a:gd name="connsiteX2" fmla="*/ 3638550 w 6162675"/>
+            <a:gd name="connsiteY2" fmla="*/ 2219325 h 2251133"/>
+            <a:gd name="connsiteX3" fmla="*/ 6162675 w 6162675"/>
+            <a:gd name="connsiteY3" fmla="*/ 1943100 h 2251133"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="6162675" h="2251133">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="296862" y="443706"/>
+                <a:pt x="593725" y="887413"/>
+                <a:pt x="1200150" y="1257300"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="1806575" y="1627188"/>
+                <a:pt x="2811463" y="2105025"/>
+                <a:pt x="3638550" y="2219325"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="4465637" y="2333625"/>
+                <a:pt x="6013450" y="2116137"/>
+                <a:pt x="6162675" y="1943100"/>
               </a:cubicBezTo>
             </a:path>
           </a:pathLst>
@@ -545,29 +751,77 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>49520</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Connector 30"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Freeform 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="6724650" y="1143001"/>
-          <a:ext cx="1181100" cy="781049"/>
+        <a:xfrm>
+          <a:off x="6829424" y="571500"/>
+          <a:ext cx="1190625" cy="1764020"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
+        <a:custGeom>
           <a:avLst/>
-        </a:prstGeom>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 0 w 1200150"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 1773545"/>
+            <a:gd name="connsiteX1" fmla="*/ 590550 w 1200150"/>
+            <a:gd name="connsiteY1" fmla="*/ 400050 h 1773545"/>
+            <a:gd name="connsiteX2" fmla="*/ 581025 w 1200150"/>
+            <a:gd name="connsiteY2" fmla="*/ 1647825 h 1773545"/>
+            <a:gd name="connsiteX3" fmla="*/ 1200150 w 1200150"/>
+            <a:gd name="connsiteY3" fmla="*/ 1724025 h 1773545"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="1200150" h="1773545">
+              <a:moveTo>
+                <a:pt x="0" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="246856" y="62706"/>
+                <a:pt x="493713" y="125413"/>
+                <a:pt x="590550" y="400050"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="687387" y="674687"/>
+                <a:pt x="479425" y="1427163"/>
+                <a:pt x="581025" y="1647825"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="682625" y="1868487"/>
+                <a:pt x="1135063" y="1733550"/>
+                <a:pt x="1200150" y="1724025"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -583,95 +837,15 @@
           <a:schemeClr val="tx1"/>
         </a:fontRef>
       </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="34" name="Straight Connector 33"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9239250" y="552450"/>
-          <a:ext cx="1228725" cy="1162050"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Connector 35"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9248775" y="1533525"/>
-          <a:ext cx="1209675" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -720,7 +894,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -755,7 +929,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:S14"/>
+  <dimension ref="B2:S15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -974,273 +1148,295 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="F2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="15"/>
-      <c r="J2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="17"/>
-      <c r="R2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="16"/>
+      <c r="C2" s="17"/>
+      <c r="F2" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="J2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="15"/>
+      <c r="N2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="17"/>
+      <c r="R2" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="8"/>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="8">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="8">
+      <c r="C3" s="9"/>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="I3" s="9">
+      <c r="F3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="13"/>
-      <c r="Q3">
+      <c r="G3" s="11"/>
+      <c r="H3" s="1">
         <v>1</v>
       </c>
-      <c r="R3" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S3" s="13"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="9"/>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="11"/>
+      <c r="P3" s="1">
+        <v>1</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="9"/>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="E4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="B4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="E4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="N4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" s="16"/>
+      <c r="F4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="I4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="M4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="Q4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="R4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S4" s="5"/>
+        <v>25</v>
+      </c>
+      <c r="S4" s="6"/>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="9">
-        <v>1</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="J5" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="N5" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="O5" s="13"/>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="J5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="N5" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="R5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="S5" s="7"/>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="F6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="J6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="5"/>
-      <c r="M6" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="N6" s="20" t="s">
+      <c r="C6" s="7"/>
+      <c r="F6" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="21"/>
+      <c r="J6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="R6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="20"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="F7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="N7" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="O7" s="19"/>
-      <c r="R7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="16"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="F7" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="21"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="N8" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="O8" s="5"/>
-      <c r="Q8" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="R8" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="S8" s="13"/>
+      <c r="F8" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B9" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="F9" s="3" t="s">
+      <c r="B9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="F9" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="J9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="15"/>
-      <c r="N9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="20"/>
-      <c r="P9" s="8">
-        <v>1</v>
-      </c>
-      <c r="R9" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="5"/>
+      <c r="G9" s="19"/>
+      <c r="J9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="17"/>
+      <c r="N9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="8">
+      <c r="B10" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="J10" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="8">
+      <c r="C10" s="9"/>
+      <c r="J10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="N10" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="8">
+      <c r="K10" s="11"/>
+      <c r="L10" s="1">
         <v>1</v>
       </c>
+      <c r="N10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9"/>
+      <c r="P10" s="1"/>
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="I11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="18" t="s">
+      <c r="B11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" s="6"/>
+      <c r="M11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="19"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="2"/>
+      <c r="B12" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="J12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="M12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="O12" s="4"/>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="J13" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="K13" s="5"/>
+      <c r="B13" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="J13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="7"/>
+      <c r="M13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" s="4"/>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="J14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K14" s="5"/>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="J14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="7"/>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="N15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="R3:S3"/>
+  <mergeCells count="47">
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="N12:O12"/>
     <mergeCell ref="R4:S4"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
     <mergeCell ref="N9:O9"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="J3:K3"/>
@@ -1250,23 +1446,20 @@
     <mergeCell ref="J9:K9"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="F4:G4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
